--- a/dashboard.xlsx
+++ b/dashboard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Habit Logs" sheetId="1" r:id="rId1"/>
+    <sheet name="IST Logs" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Date</v>
+        <v>Date (IST)</v>
       </c>
       <c r="B1" t="str">
         <v>Study</v>
@@ -458,13 +458,13 @@
         <v>2026-02-15</v>
       </c>
       <c r="B4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="C4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="D4" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="E4">
         <v>0</v>

--- a/dashboard.xlsx
+++ b/dashboard.xlsx
@@ -458,13 +458,13 @@
         <v>2026-02-15</v>
       </c>
       <c r="B4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="C4" t="str">
         <v>NO</v>
       </c>
       <c r="D4" t="str">
-        <v>NO</v>
+        <v>YES</v>
       </c>
       <c r="E4">
         <v>0</v>
